--- a/springTestCommunity/src/main/webapp/resources/upload/회원데이터(양식).xlsx
+++ b/springTestCommunity/src/main/webapp/resources/upload/회원데이터(양식).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV\Desktop\JangAWS\팀프로젝트\심화(2차)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610407D1-9902-4ECF-8707-DBDCB8E21BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0A731-0D2F-425A-809F-11E62E4DC3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B90537A1-0232-40B4-829D-AB2A0670D75B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="목록" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="부서명">직원!$E$2:$E$8</definedName>
+    <definedName name="부서명">직원!$E$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
-  <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>kim@example.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>이름</t>
   </si>
@@ -105,10 +99,6 @@
   </si>
   <si>
     <t>농협은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-09-27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -189,211 +179,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김영희</t>
-  </si>
-  <si>
-    <t>010-9876-5432</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오뱅크</t>
   </si>
   <si>
-    <t>이철수</t>
-  </si>
-  <si>
-    <t>lee@example.com</t>
-  </si>
-  <si>
-    <t>010-2345-6789</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지영</t>
-  </si>
-  <si>
-    <t>park@example.com</t>
-  </si>
-  <si>
-    <t>010-6789-2345</t>
-  </si>
-  <si>
-    <t>2022-12-05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최민호</t>
-  </si>
-  <si>
-    <t>choi@example.com</t>
-  </si>
-  <si>
-    <t>010-3456-7890</t>
-  </si>
-  <si>
-    <t>2021-06-17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리은행</t>
-  </si>
-  <si>
-    <t>장서현</t>
-  </si>
-  <si>
-    <t>jang@example.com</t>
-  </si>
-  <si>
-    <t>010-5678-2345</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전북은행</t>
   </si>
   <si>
-    <t>홍선영</t>
-  </si>
-  <si>
-    <t>hong2@example.com</t>
-  </si>
-  <si>
-    <t>010-7654-1234</t>
-  </si>
-  <si>
-    <t>2024-08-23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기업은행</t>
-  </si>
-  <si>
-    <t>김성준</t>
-  </si>
-  <si>
-    <t>kim2@example.com</t>
-  </si>
-  <si>
-    <t>010-4321-8765</t>
-  </si>
-  <si>
-    <t>2023-01-09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이영은</t>
-  </si>
-  <si>
-    <t>lee2@example.com</t>
-  </si>
-  <si>
-    <t>010-5678-4321</t>
-  </si>
-  <si>
-    <t>2021-11-13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박재희</t>
-  </si>
-  <si>
-    <t>park2@example.com</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@example.com</t>
-  </si>
-  <si>
-    <t>010-1234-5678</t>
-  </si>
-  <si>
-    <t>국민은행</t>
   </si>
   <si>
     <t>주소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전라북도 전주시 덕진구 송천로 89번길 17</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 완산구 풍남로 23길 10</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 덕진구 기린대로 77길 5-2</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 완산구 백제대로 102번길 33</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 덕진구 동부대로 56길 19-1</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 완산구 효자로 89번길 14</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 덕진구 모악로 31길 7-5</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 완산구 진북로 68번길 8</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 덕진구 금암로 12길 4</t>
-  </si>
-  <si>
-    <t>전라북도 전주시 완산구 전주천로 45길 12-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획팀</t>
-  </si>
-  <si>
     <t>기획팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>000001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t>000005</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t>000007</t>
-  </si>
-  <si>
-    <t>000008</t>
-  </si>
-  <si>
-    <t>000009</t>
-  </si>
-  <si>
-    <t>000010</t>
-  </si>
-  <si>
     <t>회계팀</t>
   </si>
   <si>
@@ -401,8 +203,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>gyr0204@naver.com</t>
+  </si>
+  <si>
+    <t>010-1122-3344</t>
+  </si>
+  <si>
     <t>12345678910123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2233-4455</t>
+  </si>
+  <si>
+    <t>신한은행</t>
+  </si>
+  <si>
+    <t>농협은행</t>
+  </si>
+  <si>
+    <t>000036</t>
+  </si>
+  <si>
+    <t>장수빈</t>
+  </si>
+  <si>
+    <t>010-7788-8899</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>전라북도 전주시 완산구 금암로 19길 4</t>
+  </si>
+  <si>
+    <t>000037</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>010-8899-9900</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>전라북도 전주시 덕진구 송천로 18번길 6</t>
+  </si>
+  <si>
+    <t>000038</t>
+  </si>
+  <si>
+    <t>이서현</t>
+  </si>
+  <si>
+    <t>010-9900-0011</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>전라북도 전주시 완산구 풍남로 8길 10</t>
+  </si>
+  <si>
+    <t>000039</t>
+  </si>
+  <si>
+    <t>최재원</t>
+  </si>
+  <si>
+    <t>2021-08-18</t>
+  </si>
+  <si>
+    <t>전라북도 전주시 덕진구 진북로 24번길 7</t>
+  </si>
+  <si>
+    <t>000040</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>전라북도 전주시 완산구 백제대로 33번길 11</t>
   </si>
 </sst>
 </file>
@@ -823,16 +708,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B152734-147E-4448-AD44-802979B4C0B9}">
-  <dimension ref="A1:J582"/>
+  <dimension ref="A1:J577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -844,360 +729,260 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" t="s">
-        <v>92</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1209,7 +994,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1221,7 +1006,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1233,7 +1018,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1243,121 +1028,86 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="4"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="H32" s="1"/>
@@ -3919,27 +3669,22 @@
     </row>
     <row r="544" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E544" s="1"/>
-      <c r="F544" s="1"/>
       <c r="H544" s="1"/>
     </row>
     <row r="545" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E545" s="1"/>
-      <c r="F545" s="1"/>
       <c r="H545" s="1"/>
     </row>
     <row r="546" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E546" s="1"/>
-      <c r="F546" s="1"/>
       <c r="H546" s="1"/>
     </row>
     <row r="547" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E547" s="1"/>
-      <c r="F547" s="1"/>
       <c r="H547" s="1"/>
     </row>
     <row r="548" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E548" s="1"/>
-      <c r="F548" s="1"/>
       <c r="H548" s="1"/>
     </row>
     <row r="549" spans="5:8" x14ac:dyDescent="0.3">
@@ -4044,35 +3789,15 @@
     </row>
     <row r="574" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E574" s="1"/>
-      <c r="H574" s="1"/>
     </row>
     <row r="575" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E575" s="1"/>
-      <c r="H575" s="1"/>
     </row>
     <row r="576" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E576" s="1"/>
-      <c r="H576" s="1"/>
-    </row>
-    <row r="577" spans="5:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E577" s="1"/>
-      <c r="H577" s="1"/>
-    </row>
-    <row r="578" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E578" s="1"/>
-      <c r="H578" s="1"/>
-    </row>
-    <row r="579" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E579" s="1"/>
-    </row>
-    <row r="580" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E580" s="1"/>
-    </row>
-    <row r="581" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E581" s="1"/>
-    </row>
-    <row r="582" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E582" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4085,19 +3810,19 @@
           <x14:formula1>
             <xm:f>목록!$D$6:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F548</xm:sqref>
+          <xm:sqref>F2:F543</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4AEC44B3-8CD1-4A28-BF97-ED6C55EBF589}">
           <x14:formula1>
             <xm:f>목록!$C$6:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E582</xm:sqref>
+          <xm:sqref>E2:E577</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A4F8A85-BA28-4C6D-8522-82526504F62B}">
           <x14:formula1>
             <xm:f>목록!$E$6:$E$18</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H578</xm:sqref>
+          <xm:sqref>H2:H573</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4122,136 +3847,136 @@
   <sheetData>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
